--- a/medicine/Mort/Dibbouk/Dibbouk.xlsx
+++ b/medicine/Mort/Dibbouk/Dibbouk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un dibbouk, dibouk ou dybbouk (plusieurs graphies existent à partir de l'hébreu דיבוק signifiant « attachement ») est, dans la mythologie juive et kabbalistique, un esprit ou un démon qui habite le corps d'un individu auquel il reste attaché. Un dibbouk peut être exorcisé.
 Selon Leo Rosten dans Les Joies du Yiddish, un dibbouk peut être :
